--- a/data/nzd0241/nzd0241.xlsx
+++ b/data/nzd0241/nzd0241.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU259"/>
+  <dimension ref="A1:AU264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26327,9 +26327,7 @@
       <c r="E224" t="n">
         <v>304.87</v>
       </c>
-      <c r="F224" t="n">
-        <v>365.41</v>
-      </c>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -29547,9 +29545,7 @@
         <v>456.63</v>
       </c>
       <c r="E254" t="inlineStr"/>
-      <c r="F254" t="n">
-        <v>660.72</v>
-      </c>
+      <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -29736,9 +29732,7 @@
       <c r="D256" t="n">
         <v>459.5</v>
       </c>
-      <c r="E256" t="n">
-        <v>437.97</v>
-      </c>
+      <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
@@ -29957,23 +29951,25 @@
           <t>2024-10-26 22:06:36+00:00</t>
         </is>
       </c>
-      <c r="B258" t="n">
-        <v>209.85</v>
-      </c>
-      <c r="C258" t="inlineStr"/>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="n">
+        <v>362.04</v>
+      </c>
       <c r="D258" t="n">
         <v>487.24</v>
       </c>
       <c r="E258" t="inlineStr"/>
-      <c r="F258" t="n">
-        <v>631.58</v>
-      </c>
-      <c r="G258" t="n">
-        <v>611.91</v>
-      </c>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="n">
+        <v>356.97</v>
+      </c>
+      <c r="I258" t="n">
+        <v>358.82</v>
+      </c>
+      <c r="J258" t="n">
+        <v>377.83</v>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>262.56</v>
@@ -30155,6 +30151,653 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>306.2</v>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="n">
+        <v>397.27</v>
+      </c>
+      <c r="F260" t="n">
+        <v>396.47</v>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="n">
+        <v>443.54</v>
+      </c>
+      <c r="I260" t="n">
+        <v>422.92</v>
+      </c>
+      <c r="J260" t="n">
+        <v>395.66</v>
+      </c>
+      <c r="K260" t="n">
+        <v>202.12</v>
+      </c>
+      <c r="L260" t="n">
+        <v>262.12</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>396.45</v>
+      </c>
+      <c r="O260" t="n">
+        <v>347.75</v>
+      </c>
+      <c r="P260" t="n">
+        <v>373.82</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>381.74</v>
+      </c>
+      <c r="R260" t="n">
+        <v>394.52</v>
+      </c>
+      <c r="S260" t="n">
+        <v>406.1685714285715</v>
+      </c>
+      <c r="T260" t="n">
+        <v>432.4133333333333</v>
+      </c>
+      <c r="U260" t="n">
+        <v>463.8285714285714</v>
+      </c>
+      <c r="V260" t="n">
+        <v>496.35</v>
+      </c>
+      <c r="W260" t="n">
+        <v>480.51</v>
+      </c>
+      <c r="X260" t="n">
+        <v>468.9485714285714</v>
+      </c>
+      <c r="Y260" t="n">
+        <v>458.93</v>
+      </c>
+      <c r="Z260" t="n">
+        <v>452.11</v>
+      </c>
+      <c r="AA260" t="n">
+        <v>462.1133333333333</v>
+      </c>
+      <c r="AB260" t="n">
+        <v>485.3233333333333</v>
+      </c>
+      <c r="AC260" t="n">
+        <v>456.2285714285715</v>
+      </c>
+      <c r="AD260" t="n">
+        <v>428.2985714285714</v>
+      </c>
+      <c r="AE260" t="n">
+        <v>409.1885714285714</v>
+      </c>
+      <c r="AF260" t="n">
+        <v>405.0185714285714</v>
+      </c>
+      <c r="AG260" t="n">
+        <v>416.4285714285714</v>
+      </c>
+      <c r="AH260" t="n">
+        <v>414.8209090909091</v>
+      </c>
+      <c r="AI260" t="n">
+        <v>401.79</v>
+      </c>
+      <c r="AJ260" t="n">
+        <v>397.3</v>
+      </c>
+      <c r="AK260" t="n">
+        <v>388.4133333333333</v>
+      </c>
+      <c r="AL260" t="n">
+        <v>388.4214285714286</v>
+      </c>
+      <c r="AM260" t="n">
+        <v>391.5386206896552</v>
+      </c>
+      <c r="AN260" t="n">
+        <v>380.59</v>
+      </c>
+      <c r="AO260" t="n">
+        <v>368.23</v>
+      </c>
+      <c r="AP260" t="n">
+        <v>371.56</v>
+      </c>
+      <c r="AQ260" t="n">
+        <v>389.0276470588236</v>
+      </c>
+      <c r="AR260" t="n">
+        <v>416.6933333333333</v>
+      </c>
+      <c r="AS260" t="n">
+        <v>420.93</v>
+      </c>
+      <c r="AT260" t="n">
+        <v>415.11</v>
+      </c>
+      <c r="AU260" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>216.77</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="n">
+        <v>327.37</v>
+      </c>
+      <c r="N261" t="n">
+        <v>357.07</v>
+      </c>
+      <c r="O261" t="n">
+        <v>369.7433333333333</v>
+      </c>
+      <c r="P261" t="n">
+        <v>367.53</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>384.08</v>
+      </c>
+      <c r="R261" t="n">
+        <v>404.06</v>
+      </c>
+      <c r="S261" t="n">
+        <v>422.4914285714286</v>
+      </c>
+      <c r="T261" t="n">
+        <v>430.5455555555556</v>
+      </c>
+      <c r="U261" t="n">
+        <v>461.8014285714286</v>
+      </c>
+      <c r="V261" t="n">
+        <v>472.99</v>
+      </c>
+      <c r="W261" t="n">
+        <v>472.02</v>
+      </c>
+      <c r="X261" t="n">
+        <v>480.1714285714286</v>
+      </c>
+      <c r="Y261" t="n">
+        <v>471.55</v>
+      </c>
+      <c r="Z261" t="n">
+        <v>465.6</v>
+      </c>
+      <c r="AA261" t="n">
+        <v>455.1455555555555</v>
+      </c>
+      <c r="AB261" t="n">
+        <v>456.5755555555555</v>
+      </c>
+      <c r="AC261" t="n">
+        <v>452.3714285714286</v>
+      </c>
+      <c r="AD261" t="n">
+        <v>442.3714285714286</v>
+      </c>
+      <c r="AE261" t="n">
+        <v>436.4214285714286</v>
+      </c>
+      <c r="AF261" t="n">
+        <v>432.7914285714286</v>
+      </c>
+      <c r="AG261" t="n">
+        <v>437.6414285714285</v>
+      </c>
+      <c r="AH261" t="n">
+        <v>409.0581818181818</v>
+      </c>
+      <c r="AI261" t="n">
+        <v>430.8433333333333</v>
+      </c>
+      <c r="AJ261" t="n">
+        <v>406.3</v>
+      </c>
+      <c r="AK261" t="n">
+        <v>407.1555555555556</v>
+      </c>
+      <c r="AL261" t="n">
+        <v>401.6685714285715</v>
+      </c>
+      <c r="AM261" t="n">
+        <v>396.7193103448275</v>
+      </c>
+      <c r="AN261" t="n">
+        <v>392.65</v>
+      </c>
+      <c r="AO261" t="n">
+        <v>389.33</v>
+      </c>
+      <c r="AP261" t="n">
+        <v>399.66</v>
+      </c>
+      <c r="AQ261" t="n">
+        <v>403.9017647058824</v>
+      </c>
+      <c r="AR261" t="n">
+        <v>402.9055555555556</v>
+      </c>
+      <c r="AS261" t="n">
+        <v>396.4</v>
+      </c>
+      <c r="AT261" t="n">
+        <v>383.08</v>
+      </c>
+      <c r="AU261" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="n">
+        <v>382.87</v>
+      </c>
+      <c r="G262" t="n">
+        <v>394.98</v>
+      </c>
+      <c r="H262" t="n">
+        <v>426.22</v>
+      </c>
+      <c r="I262" t="n">
+        <v>406.31</v>
+      </c>
+      <c r="J262" t="n">
+        <v>386.54</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>371.68</v>
+      </c>
+      <c r="O262" t="n">
+        <v>366.5366666666667</v>
+      </c>
+      <c r="P262" t="n">
+        <v>379.86</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>388.23</v>
+      </c>
+      <c r="R262" t="n">
+        <v>402.64</v>
+      </c>
+      <c r="S262" t="n">
+        <v>416.7285714285715</v>
+      </c>
+      <c r="T262" t="n">
+        <v>430.3111111111111</v>
+      </c>
+      <c r="U262" t="n">
+        <v>459.7785714285715</v>
+      </c>
+      <c r="V262" t="n">
+        <v>493.41</v>
+      </c>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="n">
+        <v>506.9585714285714</v>
+      </c>
+      <c r="Y262" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="Z262" t="n">
+        <v>495.28</v>
+      </c>
+      <c r="AA262" t="n">
+        <v>459.6511111111111</v>
+      </c>
+      <c r="AB262" t="n">
+        <v>486.3211111111111</v>
+      </c>
+      <c r="AC262" t="n">
+        <v>458.9585714285714</v>
+      </c>
+      <c r="AD262" t="n">
+        <v>430.6085714285715</v>
+      </c>
+      <c r="AE262" t="n">
+        <v>419.4685714285715</v>
+      </c>
+      <c r="AF262" t="n">
+        <v>412.3285714285714</v>
+      </c>
+      <c r="AG262" t="n">
+        <v>422.7385714285714</v>
+      </c>
+      <c r="AH262" t="n">
+        <v>420.3945454545454</v>
+      </c>
+      <c r="AI262" t="n">
+        <v>425.1766666666667</v>
+      </c>
+      <c r="AJ262" t="n">
+        <v>407.78</v>
+      </c>
+      <c r="AK262" t="n">
+        <v>405.0711111111111</v>
+      </c>
+      <c r="AL262" t="n">
+        <v>401.4814285714286</v>
+      </c>
+      <c r="AM262" t="n">
+        <v>389.5</v>
+      </c>
+      <c r="AN262" t="n">
+        <v>386.86</v>
+      </c>
+      <c r="AO262" t="n">
+        <v>381.48</v>
+      </c>
+      <c r="AP262" t="n">
+        <v>389.05</v>
+      </c>
+      <c r="AQ262" t="n">
+        <v>395.9229411764706</v>
+      </c>
+      <c r="AR262" t="n">
+        <v>411.0911111111111</v>
+      </c>
+      <c r="AS262" t="n">
+        <v>409.98</v>
+      </c>
+      <c r="AT262" t="n">
+        <v>400.48</v>
+      </c>
+      <c r="AU262" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>209</v>
+      </c>
+      <c r="L263" t="n">
+        <v>296.53</v>
+      </c>
+      <c r="M263" t="n">
+        <v>318.94</v>
+      </c>
+      <c r="N263" t="n">
+        <v>359.12</v>
+      </c>
+      <c r="O263" t="n">
+        <v>370.1533333333333</v>
+      </c>
+      <c r="P263" t="n">
+        <v>376.07</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>383.63</v>
+      </c>
+      <c r="R263" t="n">
+        <v>401.81</v>
+      </c>
+      <c r="S263" t="n">
+        <v>424.51</v>
+      </c>
+      <c r="T263" t="n">
+        <v>431.0022222222222</v>
+      </c>
+      <c r="U263" t="n">
+        <v>461.19</v>
+      </c>
+      <c r="V263" t="n">
+        <v>471.28</v>
+      </c>
+      <c r="W263" t="n">
+        <v>471.17</v>
+      </c>
+      <c r="X263" t="n">
+        <v>487.43</v>
+      </c>
+      <c r="Y263" t="n">
+        <v>474.1</v>
+      </c>
+      <c r="Z263" t="n">
+        <v>465.55</v>
+      </c>
+      <c r="AA263" t="n">
+        <v>457.3522222222222</v>
+      </c>
+      <c r="AB263" t="n">
+        <v>458.6022222222222</v>
+      </c>
+      <c r="AC263" t="n">
+        <v>456.46</v>
+      </c>
+      <c r="AD263" t="n">
+        <v>450.26</v>
+      </c>
+      <c r="AE263" t="n">
+        <v>436.06</v>
+      </c>
+      <c r="AF263" t="n">
+        <v>434.83</v>
+      </c>
+      <c r="AG263" t="n">
+        <v>433.87</v>
+      </c>
+      <c r="AH263" t="n">
+        <v>413.95</v>
+      </c>
+      <c r="AI263" t="n">
+        <v>434.9433333333333</v>
+      </c>
+      <c r="AJ263" t="n">
+        <v>410.19</v>
+      </c>
+      <c r="AK263" t="n">
+        <v>410.2322222222222</v>
+      </c>
+      <c r="AL263" t="n">
+        <v>404.73</v>
+      </c>
+      <c r="AM263" t="n">
+        <v>397.6820689655173</v>
+      </c>
+      <c r="AN263" t="n">
+        <v>390.69</v>
+      </c>
+      <c r="AO263" t="n">
+        <v>386.86</v>
+      </c>
+      <c r="AP263" t="n">
+        <v>396.06</v>
+      </c>
+      <c r="AQ263" t="n">
+        <v>393.8552941176471</v>
+      </c>
+      <c r="AR263" t="n">
+        <v>398.7522222222222</v>
+      </c>
+      <c r="AS263" t="n">
+        <v>391.59</v>
+      </c>
+      <c r="AT263" t="n">
+        <v>392.07</v>
+      </c>
+      <c r="AU263" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>211.67</v>
+      </c>
+      <c r="L264" t="n">
+        <v>287.97</v>
+      </c>
+      <c r="M264" t="n">
+        <v>317.09</v>
+      </c>
+      <c r="N264" t="n">
+        <v>332.31</v>
+      </c>
+      <c r="O264" t="n">
+        <v>346.0866666666667</v>
+      </c>
+      <c r="P264" t="n">
+        <v>371.11</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>383.3200000000001</v>
+      </c>
+      <c r="R264" t="n">
+        <v>390.22</v>
+      </c>
+      <c r="S264" t="n">
+        <v>399.0985714285715</v>
+      </c>
+      <c r="T264" t="n">
+        <v>427.2877777777778</v>
+      </c>
+      <c r="U264" t="n">
+        <v>456.2185714285715</v>
+      </c>
+      <c r="V264" t="n">
+        <v>483.07</v>
+      </c>
+      <c r="W264" t="n">
+        <v>480.01</v>
+      </c>
+      <c r="X264" t="n">
+        <v>469.4285714285714</v>
+      </c>
+      <c r="Y264" t="n">
+        <v>458.06</v>
+      </c>
+      <c r="Z264" t="n">
+        <v>461.2</v>
+      </c>
+      <c r="AA264" t="n">
+        <v>463.5777777777778</v>
+      </c>
+      <c r="AB264" t="n">
+        <v>464.7277777777778</v>
+      </c>
+      <c r="AC264" t="n">
+        <v>441.0185714285714</v>
+      </c>
+      <c r="AD264" t="n">
+        <v>425.0885714285714</v>
+      </c>
+      <c r="AE264" t="n">
+        <v>411.8585714285715</v>
+      </c>
+      <c r="AF264" t="n">
+        <v>415.2485714285714</v>
+      </c>
+      <c r="AG264" t="n">
+        <v>422.2785714285715</v>
+      </c>
+      <c r="AH264" t="n">
+        <v>412.3727272727273</v>
+      </c>
+      <c r="AI264" t="n">
+        <v>407.6766666666667</v>
+      </c>
+      <c r="AJ264" t="n">
+        <v>404.34</v>
+      </c>
+      <c r="AK264" t="n">
+        <v>396.0077777777778</v>
+      </c>
+      <c r="AL264" t="n">
+        <v>398.9614285714285</v>
+      </c>
+      <c r="AM264" t="n">
+        <v>386.3548275862069</v>
+      </c>
+      <c r="AN264" t="n">
+        <v>383.06</v>
+      </c>
+      <c r="AO264" t="n">
+        <v>378.63</v>
+      </c>
+      <c r="AP264" t="n">
+        <v>392.03</v>
+      </c>
+      <c r="AQ264" t="inlineStr"/>
+      <c r="AR264" t="inlineStr"/>
+      <c r="AS264" t="inlineStr"/>
+      <c r="AT264" t="inlineStr"/>
+      <c r="AU264" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30166,7 +30809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B264"/>
+  <dimension ref="A1:B269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32814,6 +33457,56 @@
       </c>
       <c r="B264" t="n">
         <v>1.08</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>-0.37</v>
       </c>
     </row>
   </sheetData>
@@ -32976,28 +33669,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>8.650429981446649</v>
+        <v>9.658643892685062</v>
       </c>
       <c r="J2" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K2" t="n">
         <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4028110500143417</v>
+        <v>0.55434143037155</v>
       </c>
       <c r="M2" t="n">
-        <v>44.49352722831925</v>
+        <v>38.77751663830801</v>
       </c>
       <c r="N2" t="n">
-        <v>4293.092767940011</v>
+        <v>2914.973975679415</v>
       </c>
       <c r="O2" t="n">
-        <v>65.52169692506453</v>
+        <v>53.99049893897458</v>
       </c>
       <c r="P2" t="n">
-        <v>213.4267076799101</v>
+        <v>202.4327592950542</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -33047,28 +33740,28 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>19.46412864150911</v>
+        <v>15.93305710824298</v>
       </c>
       <c r="J3" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5700039930526131</v>
+        <v>0.4265617259834323</v>
       </c>
       <c r="M3" t="n">
-        <v>58.55311083964493</v>
+        <v>68.87300041709092</v>
       </c>
       <c r="N3" t="n">
-        <v>5439.490413558821</v>
+        <v>7057.29219234925</v>
       </c>
       <c r="O3" t="n">
-        <v>73.75290105181504</v>
+        <v>84.00769126900971</v>
       </c>
       <c r="P3" t="n">
-        <v>91.2635815357433</v>
+        <v>144.8155361595748</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -33121,7 +33814,7 @@
         <v>8.207187225582553</v>
       </c>
       <c r="J4" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K4" t="n">
         <v>39</v>
@@ -33189,28 +33882,28 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>-18.26230448710808</v>
+        <v>-18.49507124627443</v>
       </c>
       <c r="J5" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K5" t="n">
         <v>45</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3643272945336802</v>
+        <v>0.3809742232393316</v>
       </c>
       <c r="M5" t="n">
-        <v>85.58511677411245</v>
+        <v>84.6345734089923</v>
       </c>
       <c r="N5" t="n">
-        <v>10187.18090668883</v>
+        <v>9812.80567709253</v>
       </c>
       <c r="O5" t="n">
-        <v>100.9315654623906</v>
+        <v>99.05960668755218</v>
       </c>
       <c r="P5" t="n">
-        <v>628.7842710103426</v>
+        <v>631.952260734322</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -33260,28 +33953,28 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>6.5665060001818</v>
+        <v>-0.8830506753951629</v>
       </c>
       <c r="J6" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K6" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02991496123671811</v>
+        <v>0.0006921532459307489</v>
       </c>
       <c r="M6" t="n">
-        <v>98.44577777106096</v>
+        <v>88.6697777283089</v>
       </c>
       <c r="N6" t="n">
-        <v>15672.99298001106</v>
+        <v>12314.19856787451</v>
       </c>
       <c r="O6" t="n">
-        <v>125.1918247331313</v>
+        <v>110.9693586891197</v>
       </c>
       <c r="P6" t="n">
-        <v>202.1027407881687</v>
+        <v>317.1504340013599</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -33331,28 +34024,28 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>12.30873238512527</v>
+        <v>9.391410345053959</v>
       </c>
       <c r="J7" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K7" t="n">
         <v>40</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2784333891841101</v>
+        <v>0.2259510748930902</v>
       </c>
       <c r="M7" t="n">
-        <v>69.33959386847499</v>
+        <v>61.10688909506532</v>
       </c>
       <c r="N7" t="n">
-        <v>6743.840991875031</v>
+        <v>5223.578486946758</v>
       </c>
       <c r="O7" t="n">
-        <v>82.12089254188018</v>
+        <v>72.27432799374033</v>
       </c>
       <c r="P7" t="n">
-        <v>68.70848263215183</v>
+        <v>110.1450346705303</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -33402,28 +34095,28 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>-3.254483678273368</v>
+        <v>-0.3853918166814464</v>
       </c>
       <c r="J8" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K8" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01778021623473813</v>
+        <v>0.0003261929780158379</v>
       </c>
       <c r="M8" t="n">
-        <v>79.64588797144748</v>
+        <v>80.111118386846</v>
       </c>
       <c r="N8" t="n">
-        <v>8470.293082541051</v>
+        <v>8487.165403808536</v>
       </c>
       <c r="O8" t="n">
-        <v>92.0341951806015</v>
+        <v>92.12581290717893</v>
       </c>
       <c r="P8" t="n">
-        <v>388.395374273074</v>
+        <v>347.4612654018123</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -33473,28 +34166,28 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>-2.954395091639383</v>
+        <v>-1.175811708915222</v>
       </c>
       <c r="J9" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K9" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L9" t="n">
-        <v>0.01465762451434094</v>
+        <v>0.002730201672275001</v>
       </c>
       <c r="M9" t="n">
-        <v>90.49667178893797</v>
+        <v>90.79802178150806</v>
       </c>
       <c r="N9" t="n">
-        <v>11393.23814587781</v>
+        <v>11284.2973593245</v>
       </c>
       <c r="O9" t="n">
-        <v>106.739112540239</v>
+        <v>106.2275734417599</v>
       </c>
       <c r="P9" t="n">
-        <v>370.2077697935917</v>
+        <v>345.6152014603505</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -33544,28 +34237,28 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>-18.05145745012135</v>
+        <v>-14.93184124196505</v>
       </c>
       <c r="J10" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K10" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4774568993033994</v>
+        <v>0.360317751614908</v>
       </c>
       <c r="M10" t="n">
-        <v>67.86325739445746</v>
+        <v>75.50560531577034</v>
       </c>
       <c r="N10" t="n">
-        <v>6577.08410117965</v>
+        <v>7901.503971594452</v>
       </c>
       <c r="O10" t="n">
-        <v>81.09922380133888</v>
+        <v>88.89040427174608</v>
       </c>
       <c r="P10" t="n">
-        <v>623.4716848431377</v>
+        <v>575.9966462756541</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -33615,28 +34308,28 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>-6.219032936621836</v>
+        <v>-6.603152119682166</v>
       </c>
       <c r="J11" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K11" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L11" t="n">
-        <v>0.08550040574000217</v>
+        <v>0.1021297785194838</v>
       </c>
       <c r="M11" t="n">
-        <v>84.49315952075578</v>
+        <v>82.35701549370978</v>
       </c>
       <c r="N11" t="n">
-        <v>10700.75085671284</v>
+        <v>10417.45961933464</v>
       </c>
       <c r="O11" t="n">
-        <v>103.444433667128</v>
+        <v>102.0659572008936</v>
       </c>
       <c r="P11" t="n">
-        <v>410.034156153081</v>
+        <v>415.4300609720992</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33692,28 +34385,28 @@
         <v>0.0379</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.61853330839864</v>
+        <v>-6.533057393695713</v>
       </c>
       <c r="J12" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K12" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1603847421253415</v>
+        <v>0.1615606886165699</v>
       </c>
       <c r="M12" t="n">
-        <v>70.93638141333355</v>
+        <v>70.10576495132219</v>
       </c>
       <c r="N12" t="n">
-        <v>7674.770991761785</v>
+        <v>7543.445162920333</v>
       </c>
       <c r="O12" t="n">
-        <v>87.60577031087499</v>
+        <v>86.8530089456913</v>
       </c>
       <c r="P12" t="n">
-        <v>431.5600065280473</v>
+        <v>430.4250146095413</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33769,28 +34462,28 @@
         <v>0.0355</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3859433503221679</v>
+        <v>0.3535702760869475</v>
       </c>
       <c r="J13" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K13" t="n">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0007693554858787532</v>
+        <v>0.0006685035402269612</v>
       </c>
       <c r="M13" t="n">
-        <v>64.20689514729736</v>
+        <v>63.14597697505661</v>
       </c>
       <c r="N13" t="n">
-        <v>6794.799957907257</v>
+        <v>6674.875874168227</v>
       </c>
       <c r="O13" t="n">
-        <v>82.43057659574666</v>
+        <v>81.69991355055541</v>
       </c>
       <c r="P13" t="n">
-        <v>319.162921165325</v>
+        <v>319.5832631241103</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33846,28 +34539,28 @@
         <v>0.0369</v>
       </c>
       <c r="I14" t="n">
-        <v>5.096630776583517</v>
+        <v>4.996782625765477</v>
       </c>
       <c r="J14" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K14" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1888698492884626</v>
+        <v>0.1905102073272475</v>
       </c>
       <c r="M14" t="n">
-        <v>55.76029527649725</v>
+        <v>54.69817963764614</v>
       </c>
       <c r="N14" t="n">
-        <v>4745.093764632551</v>
+        <v>4635.903282707396</v>
       </c>
       <c r="O14" t="n">
-        <v>68.88464099226003</v>
+        <v>68.08746788291805</v>
       </c>
       <c r="P14" t="n">
-        <v>250.8399151732872</v>
+        <v>252.0008157770619</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33923,28 +34616,28 @@
         <v>0.0463</v>
       </c>
       <c r="I15" t="n">
-        <v>6.999394812017898</v>
+        <v>6.716641108129826</v>
       </c>
       <c r="J15" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K15" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4366538941509068</v>
+        <v>0.4225415533642471</v>
       </c>
       <c r="M15" t="n">
-        <v>44.53678957855688</v>
+        <v>44.32445371486088</v>
       </c>
       <c r="N15" t="n">
-        <v>3028.363222720028</v>
+        <v>3031.105466898289</v>
       </c>
       <c r="O15" t="n">
-        <v>55.03056625839886</v>
+        <v>55.05547626620161</v>
       </c>
       <c r="P15" t="n">
-        <v>238.5539041256145</v>
+        <v>241.5813342928324</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -34000,28 +34693,28 @@
         <v>0.081</v>
       </c>
       <c r="I16" t="n">
-        <v>5.604894364442942</v>
+        <v>5.257784334513204</v>
       </c>
       <c r="J16" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K16" t="n">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4076952091667623</v>
+        <v>0.3821132982302105</v>
       </c>
       <c r="M16" t="n">
-        <v>28.71496745451315</v>
+        <v>28.63690826697405</v>
       </c>
       <c r="N16" t="n">
-        <v>1710.27381485131</v>
+        <v>1733.191776405224</v>
       </c>
       <c r="O16" t="n">
-        <v>41.35545689327238</v>
+        <v>41.63161991089494</v>
       </c>
       <c r="P16" t="n">
-        <v>282.9213037973881</v>
+        <v>287.1659411809623</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -34077,28 +34770,28 @@
         <v>0.0767</v>
       </c>
       <c r="I17" t="n">
-        <v>4.571834773899309</v>
+        <v>4.299308329863695</v>
       </c>
       <c r="J17" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K17" t="n">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="L17" t="n">
-        <v>0.5102049638268815</v>
+        <v>0.4763040701594987</v>
       </c>
       <c r="M17" t="n">
-        <v>19.97957441404358</v>
+        <v>20.32621117002875</v>
       </c>
       <c r="N17" t="n">
-        <v>820.511117696135</v>
+        <v>854.8766936277179</v>
       </c>
       <c r="O17" t="n">
-        <v>28.64456523838571</v>
+        <v>29.23827446392345</v>
       </c>
       <c r="P17" t="n">
-        <v>315.6646290924278</v>
+        <v>318.872466572785</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -34154,28 +34847,28 @@
         <v>0.0458</v>
       </c>
       <c r="I18" t="n">
-        <v>3.153266378919287</v>
+        <v>2.943263814263228</v>
       </c>
       <c r="J18" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K18" t="n">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4818594480510897</v>
+        <v>0.4425237946180203</v>
       </c>
       <c r="M18" t="n">
-        <v>15.86199252656455</v>
+        <v>16.22787935916037</v>
       </c>
       <c r="N18" t="n">
-        <v>436.1116138460454</v>
+        <v>458.2012777592448</v>
       </c>
       <c r="O18" t="n">
-        <v>20.88328551368403</v>
+        <v>21.40563658850735</v>
       </c>
       <c r="P18" t="n">
-        <v>355.1575186382188</v>
+        <v>357.625303991541</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -34231,28 +34924,28 @@
         <v>0.038</v>
       </c>
       <c r="I19" t="n">
-        <v>2.936484259755944</v>
+        <v>2.762416557866668</v>
       </c>
       <c r="J19" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K19" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4309737560926091</v>
+        <v>0.3993602515658082</v>
       </c>
       <c r="M19" t="n">
-        <v>18.30048865813526</v>
+        <v>18.55282547200648</v>
       </c>
       <c r="N19" t="n">
-        <v>514.9015305627529</v>
+        <v>532.2117816275578</v>
       </c>
       <c r="O19" t="n">
-        <v>22.69144179118535</v>
+        <v>23.06971568155008</v>
       </c>
       <c r="P19" t="n">
-        <v>373.7546799901272</v>
+        <v>375.6943997755841</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -34308,28 +35001,28 @@
         <v>0.055</v>
       </c>
       <c r="I20" t="n">
-        <v>2.318997619446111</v>
+        <v>2.208039805385146</v>
       </c>
       <c r="J20" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K20" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3114612938666144</v>
+        <v>0.2970881880099335</v>
       </c>
       <c r="M20" t="n">
-        <v>18.22464962523973</v>
+        <v>18.19935061992848</v>
       </c>
       <c r="N20" t="n">
-        <v>577.4092258594154</v>
+        <v>575.1460997533867</v>
       </c>
       <c r="O20" t="n">
-        <v>24.02934093685084</v>
+        <v>23.98220381352361</v>
       </c>
       <c r="P20" t="n">
-        <v>393.9298015911386</v>
+        <v>395.1011361030274</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -34385,28 +35078,28 @@
         <v>0.0407</v>
       </c>
       <c r="I21" t="n">
-        <v>1.577740807675275</v>
+        <v>1.579935832402602</v>
       </c>
       <c r="J21" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K21" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1468255184254851</v>
+        <v>0.1532828448112773</v>
       </c>
       <c r="M21" t="n">
-        <v>20.5580398753491</v>
+        <v>20.11702723851839</v>
       </c>
       <c r="N21" t="n">
-        <v>725.6239107725913</v>
+        <v>708.345762517355</v>
       </c>
       <c r="O21" t="n">
-        <v>26.93740727636183</v>
+        <v>26.61476587380312</v>
       </c>
       <c r="P21" t="n">
-        <v>419.8233862919962</v>
+        <v>419.8006647900563</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -34462,28 +35155,28 @@
         <v>0.0536</v>
       </c>
       <c r="I22" t="n">
-        <v>1.039032736977904</v>
+        <v>1.125605387942304</v>
       </c>
       <c r="J22" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K22" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06824250807426158</v>
+        <v>0.08172239954187965</v>
       </c>
       <c r="M22" t="n">
-        <v>21.19948522488326</v>
+        <v>21.10487990526938</v>
       </c>
       <c r="N22" t="n">
-        <v>779.3360275729838</v>
+        <v>771.5104941098974</v>
       </c>
       <c r="O22" t="n">
-        <v>27.91659054349194</v>
+        <v>27.77607773084417</v>
       </c>
       <c r="P22" t="n">
-        <v>437.6693681244345</v>
+        <v>436.8076995597656</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -34539,28 +35232,28 @@
         <v>0.0508</v>
       </c>
       <c r="I23" t="n">
-        <v>0.789886108089725</v>
+        <v>0.815343074432774</v>
       </c>
       <c r="J23" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K23" t="n">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0416826878827492</v>
+        <v>0.04596343394578339</v>
       </c>
       <c r="M23" t="n">
-        <v>21.72526667889754</v>
+        <v>21.4094636666358</v>
       </c>
       <c r="N23" t="n">
-        <v>776.4820679120362</v>
+        <v>762.7117737290873</v>
       </c>
       <c r="O23" t="n">
-        <v>27.86542782574917</v>
+        <v>27.61723689526321</v>
       </c>
       <c r="P23" t="n">
-        <v>448.8629855040022</v>
+        <v>448.6152598653873</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -34616,28 +35309,28 @@
         <v>0.0409</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3848121603029814</v>
+        <v>0.4251136945255816</v>
       </c>
       <c r="J24" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K24" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L24" t="n">
-        <v>0.010937241583444</v>
+        <v>0.01391107894053256</v>
       </c>
       <c r="M24" t="n">
-        <v>21.01980925133812</v>
+        <v>20.77640244479905</v>
       </c>
       <c r="N24" t="n">
-        <v>709.8554738630553</v>
+        <v>698.492867409674</v>
       </c>
       <c r="O24" t="n">
-        <v>26.64311306628892</v>
+        <v>26.42901563451946</v>
       </c>
       <c r="P24" t="n">
-        <v>464.4807808841661</v>
+        <v>464.0846898965521</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -34693,28 +35386,28 @@
         <v>0.0455</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.06013482475256304</v>
+        <v>-0.02513221524241628</v>
       </c>
       <c r="J25" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K25" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002778201972800654</v>
+        <v>5.052045403253214e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>20.44183299173008</v>
+        <v>20.20744932441558</v>
       </c>
       <c r="N25" t="n">
-        <v>688.8906293705173</v>
+        <v>678.9731324935844</v>
       </c>
       <c r="O25" t="n">
-        <v>26.24672606955994</v>
+        <v>26.05711289635873</v>
       </c>
       <c r="P25" t="n">
-        <v>466.3470595107884</v>
+        <v>465.9997572135811</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
@@ -34770,28 +35463,28 @@
         <v>0.051</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.4652296901017416</v>
+        <v>-0.4072754754444459</v>
       </c>
       <c r="J26" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K26" t="n">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01541740524704727</v>
+        <v>0.01232277610220411</v>
       </c>
       <c r="M26" t="n">
-        <v>21.14410179412609</v>
+        <v>20.91985088371382</v>
       </c>
       <c r="N26" t="n">
-        <v>728.0034800087259</v>
+        <v>719.1150351809222</v>
       </c>
       <c r="O26" t="n">
-        <v>26.98153961523927</v>
+        <v>26.81632031396034</v>
       </c>
       <c r="P26" t="n">
-        <v>467.2971155682039</v>
+        <v>466.7239501551372</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
@@ -34847,28 +35540,28 @@
         <v>0.0533</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.4668079765354672</v>
+        <v>-0.4131264261897774</v>
       </c>
       <c r="J27" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K27" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01468502449638764</v>
+        <v>0.012088325640631</v>
       </c>
       <c r="M27" t="n">
-        <v>20.90906962377557</v>
+        <v>20.64437997452055</v>
       </c>
       <c r="N27" t="n">
-        <v>753.8349775452363</v>
+        <v>738.8367039134265</v>
       </c>
       <c r="O27" t="n">
-        <v>27.45605538938972</v>
+        <v>27.1815508003761</v>
       </c>
       <c r="P27" t="n">
-        <v>460.079732668179</v>
+        <v>459.5409086850412</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -34924,28 +35617,28 @@
         <v>0.052</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.3944933015312008</v>
+        <v>-0.2672949383121255</v>
       </c>
       <c r="J28" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K28" t="n">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01064114506707836</v>
+        <v>0.005020786529606358</v>
       </c>
       <c r="M28" t="n">
-        <v>20.89402617816522</v>
+        <v>20.89965066121436</v>
       </c>
       <c r="N28" t="n">
-        <v>758.7882859220165</v>
+        <v>762.2364814011625</v>
       </c>
       <c r="O28" t="n">
-        <v>27.54611199283878</v>
+        <v>27.60863056004703</v>
       </c>
       <c r="P28" t="n">
-        <v>452.1588260871672</v>
+        <v>450.9005963317856</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -35001,28 +35694,28 @@
         <v>0.0406</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.2181785247487892</v>
+        <v>-0.1694016236880206</v>
       </c>
       <c r="J29" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K29" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L29" t="n">
-        <v>0.003212433636386347</v>
+        <v>0.002028413204911983</v>
       </c>
       <c r="M29" t="n">
-        <v>21.80704290500095</v>
+        <v>21.53464852550682</v>
       </c>
       <c r="N29" t="n">
-        <v>769.4346267577851</v>
+        <v>754.9014852415829</v>
       </c>
       <c r="O29" t="n">
-        <v>27.73868466163789</v>
+        <v>27.47547061001109</v>
       </c>
       <c r="P29" t="n">
-        <v>447.8399499319814</v>
+        <v>447.3538509737521</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
@@ -35078,28 +35771,28 @@
         <v>0.0373</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.07745039379496915</v>
+        <v>-0.1006462185389843</v>
       </c>
       <c r="J30" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K30" t="n">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000505601827340052</v>
+        <v>0.0008930306900419849</v>
       </c>
       <c r="M30" t="n">
-        <v>19.4080001852747</v>
+        <v>19.19763773090914</v>
       </c>
       <c r="N30" t="n">
-        <v>639.5856508536248</v>
+        <v>627.1431891769913</v>
       </c>
       <c r="O30" t="n">
-        <v>25.29003066138167</v>
+        <v>25.04282710032937</v>
       </c>
       <c r="P30" t="n">
-        <v>442.4570795351027</v>
+        <v>442.6830434571852</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -35155,28 +35848,28 @@
         <v>0.0364</v>
       </c>
       <c r="I31" t="n">
-        <v>0.089624093665058</v>
+        <v>0.01771439876602187</v>
       </c>
       <c r="J31" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K31" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001028743672873866</v>
+        <v>4.133480347057183e-05</v>
       </c>
       <c r="M31" t="n">
-        <v>16.34686183970212</v>
+        <v>16.33855664638834</v>
       </c>
       <c r="N31" t="n">
-        <v>425.1009010910112</v>
+        <v>423.8519123750262</v>
       </c>
       <c r="O31" t="n">
-        <v>20.61797519377233</v>
+        <v>20.58766408252831</v>
       </c>
       <c r="P31" t="n">
-        <v>436.3222551514003</v>
+        <v>437.0254848368169</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -35232,28 +35925,28 @@
         <v>0.0417</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.2209675400630268</v>
+        <v>-0.2643486581998234</v>
       </c>
       <c r="J32" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K32" t="n">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L32" t="n">
-        <v>0.007258086875609138</v>
+        <v>0.01068313320673653</v>
       </c>
       <c r="M32" t="n">
-        <v>15.19341671308597</v>
+        <v>15.15502173452226</v>
       </c>
       <c r="N32" t="n">
-        <v>363.6382469310257</v>
+        <v>360.3720026760791</v>
       </c>
       <c r="O32" t="n">
-        <v>19.06930116525054</v>
+        <v>18.9834665610915</v>
       </c>
       <c r="P32" t="n">
-        <v>435.5395982400224</v>
+        <v>435.9678673841629</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -35309,28 +36002,28 @@
         <v>0.0435</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.3530500750613107</v>
+        <v>-0.3186089506318901</v>
       </c>
       <c r="J33" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K33" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01724753101696586</v>
+        <v>0.01469379538740656</v>
       </c>
       <c r="M33" t="n">
-        <v>15.29205880805414</v>
+        <v>15.12719900169014</v>
       </c>
       <c r="N33" t="n">
-        <v>377.3413360217438</v>
+        <v>371.0321991172262</v>
       </c>
       <c r="O33" t="n">
-        <v>19.42527570001888</v>
+        <v>19.26219611355949</v>
       </c>
       <c r="P33" t="n">
-        <v>428.0805690648886</v>
+        <v>427.7400368438273</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
@@ -35386,28 +36079,28 @@
         <v>0.0667</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.558279144204869</v>
+        <v>-0.4950107294731827</v>
       </c>
       <c r="J34" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K34" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L34" t="n">
-        <v>0.04228476625286914</v>
+        <v>0.03465525597815799</v>
       </c>
       <c r="M34" t="n">
-        <v>14.74326242308149</v>
+        <v>14.70110454625492</v>
       </c>
       <c r="N34" t="n">
-        <v>378.786332081536</v>
+        <v>374.8424510865932</v>
       </c>
       <c r="O34" t="n">
-        <v>19.4624338683921</v>
+        <v>19.36084840823338</v>
       </c>
       <c r="P34" t="n">
-        <v>413.8525452055562</v>
+        <v>413.2255291621366</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -35463,28 +36156,28 @@
         <v>0.0319</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.7176971733059866</v>
+        <v>-0.6069955346775724</v>
       </c>
       <c r="J35" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K35" t="n">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="L35" t="n">
-        <v>0.070102166424034</v>
+        <v>0.05129831003664442</v>
       </c>
       <c r="M35" t="n">
-        <v>15.35932649427688</v>
+        <v>15.49136328303486</v>
       </c>
       <c r="N35" t="n">
-        <v>360.8502589034316</v>
+        <v>369.2168283510961</v>
       </c>
       <c r="O35" t="n">
-        <v>18.99605903611145</v>
+        <v>19.21501569999609</v>
       </c>
       <c r="P35" t="n">
-        <v>414.3130748910175</v>
+        <v>413.213875720751</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -35540,28 +36233,28 @@
         <v>0.0548</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.8701752004514586</v>
+        <v>-0.8050244008437462</v>
       </c>
       <c r="J36" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K36" t="n">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="L36" t="n">
-        <v>0.1754688829781653</v>
+        <v>0.1578653500631294</v>
       </c>
       <c r="M36" t="n">
-        <v>10.51595306894163</v>
+        <v>10.55489701819634</v>
       </c>
       <c r="N36" t="n">
-        <v>187.2239517184699</v>
+        <v>187.2188850259076</v>
       </c>
       <c r="O36" t="n">
-        <v>13.68298036680861</v>
+        <v>13.68279521976075</v>
       </c>
       <c r="P36" t="n">
-        <v>413.914709934958</v>
+        <v>413.2746973399171</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -35617,28 +36310,28 @@
         <v>0.0544</v>
       </c>
       <c r="I37" t="n">
-        <v>-0.8336925995144968</v>
+        <v>-0.8012478372615273</v>
       </c>
       <c r="J37" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K37" t="n">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1624647112594357</v>
+        <v>0.1570939568328343</v>
       </c>
       <c r="M37" t="n">
-        <v>10.33613598943082</v>
+        <v>10.28367960779799</v>
       </c>
       <c r="N37" t="n">
-        <v>187.9478135116078</v>
+        <v>185.9554222998728</v>
       </c>
       <c r="O37" t="n">
-        <v>13.70940602329684</v>
+        <v>13.63654730127362</v>
       </c>
       <c r="P37" t="n">
-        <v>415.9045182863897</v>
+        <v>415.5853068692051</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -35688,28 +36381,28 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
-        <v>-0.7905548212974173</v>
+        <v>-0.7642795487922439</v>
       </c>
       <c r="J38" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K38" t="n">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1250029457322347</v>
+        <v>0.1224695794934377</v>
       </c>
       <c r="M38" t="n">
-        <v>11.40307727205916</v>
+        <v>11.29547954911466</v>
       </c>
       <c r="N38" t="n">
-        <v>225.4862188876353</v>
+        <v>221.4814249370071</v>
       </c>
       <c r="O38" t="n">
-        <v>15.01619854982063</v>
+        <v>14.88225201160789</v>
       </c>
       <c r="P38" t="n">
-        <v>413.6592911080216</v>
+        <v>413.3938582626305</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
@@ -35759,28 +36452,28 @@
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
-        <v>-0.8615593633863823</v>
+        <v>-0.8588568630714476</v>
       </c>
       <c r="J39" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K39" t="n">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1494406482937153</v>
+        <v>0.1549426201983286</v>
       </c>
       <c r="M39" t="n">
-        <v>11.18207633432238</v>
+        <v>10.99881605893521</v>
       </c>
       <c r="N39" t="n">
-        <v>221.2084343278181</v>
+        <v>216.220226928061</v>
       </c>
       <c r="O39" t="n">
-        <v>14.873077500229</v>
+        <v>14.70442882019091</v>
       </c>
       <c r="P39" t="n">
-        <v>413.7663303141035</v>
+        <v>413.7393956029168</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
@@ -35836,28 +36529,28 @@
         <v>0.0523</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.9183871117862439</v>
+        <v>-0.9360556797154425</v>
       </c>
       <c r="J40" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K40" t="n">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="L40" t="n">
-        <v>0.2068439639743889</v>
+        <v>0.221232547607901</v>
       </c>
       <c r="M40" t="n">
-        <v>10.61754412993823</v>
+        <v>10.46931442361261</v>
       </c>
       <c r="N40" t="n">
-        <v>172.2674470068798</v>
+        <v>168.8079517764553</v>
       </c>
       <c r="O40" t="n">
-        <v>13.12506940960237</v>
+        <v>12.99261143021122</v>
       </c>
       <c r="P40" t="n">
-        <v>413.9218670377001</v>
+        <v>414.0954125632745</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -35913,28 +36606,28 @@
         <v>0.0553</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.6875582194648112</v>
+        <v>-0.7347740155744007</v>
       </c>
       <c r="J41" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K41" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1133501079168382</v>
+        <v>0.1315526936371709</v>
       </c>
       <c r="M41" t="n">
-        <v>10.85013181180135</v>
+        <v>10.81740428365592</v>
       </c>
       <c r="N41" t="n">
-        <v>194.8883929335383</v>
+        <v>193.5217637228432</v>
       </c>
       <c r="O41" t="n">
-        <v>13.96024329779171</v>
+        <v>13.91121000211136</v>
       </c>
       <c r="P41" t="n">
-        <v>408.0810549152565</v>
+        <v>408.5419338607105</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -35990,28 +36683,28 @@
         <v>0.0459</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.5381874899986896</v>
+        <v>-0.5514400056387477</v>
       </c>
       <c r="J42" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K42" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="L42" t="n">
-        <v>0.06862886823353254</v>
+        <v>0.07480050643426595</v>
       </c>
       <c r="M42" t="n">
-        <v>11.50721214382693</v>
+        <v>11.40112947632169</v>
       </c>
       <c r="N42" t="n">
-        <v>204.8218377841882</v>
+        <v>202.242197843706</v>
       </c>
       <c r="O42" t="n">
-        <v>14.31159801644066</v>
+        <v>14.22118834147505</v>
       </c>
       <c r="P42" t="n">
-        <v>406.0700602396605</v>
+        <v>406.1990441793299</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -36061,28 +36754,28 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
-        <v>-0.4154222740258041</v>
+        <v>-0.3983809059172509</v>
       </c>
       <c r="J43" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K43" t="n">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L43" t="n">
-        <v>0.03685778180415811</v>
+        <v>0.03534365416280538</v>
       </c>
       <c r="M43" t="n">
-        <v>12.27311508252195</v>
+        <v>12.13098552306584</v>
       </c>
       <c r="N43" t="n">
-        <v>240.0793955522086</v>
+        <v>236.2045481636299</v>
       </c>
       <c r="O43" t="n">
-        <v>15.49449565336699</v>
+        <v>15.36894752947091</v>
       </c>
       <c r="P43" t="n">
-        <v>401.9508459498173</v>
+        <v>401.785765767283</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -36138,28 +36831,28 @@
         <v>0.0512</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.506316847014375</v>
+        <v>-0.4363532773936982</v>
       </c>
       <c r="J44" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K44" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L44" t="n">
-        <v>0.05098712183498177</v>
+        <v>0.03903737281779796</v>
       </c>
       <c r="M44" t="n">
-        <v>12.55126768277393</v>
+        <v>12.64102705321851</v>
       </c>
       <c r="N44" t="n">
-        <v>253.2669831082955</v>
+        <v>254.8730345345426</v>
       </c>
       <c r="O44" t="n">
-        <v>15.91436404976006</v>
+        <v>15.96474348477114</v>
       </c>
       <c r="P44" t="n">
-        <v>402.8929925597773</v>
+        <v>402.2120972914321</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -36215,28 +36908,28 @@
         <v>0.0572</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.6095202278984903</v>
+        <v>-0.5151054132892761</v>
       </c>
       <c r="J45" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K45" t="n">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L45" t="n">
-        <v>0.07228332103220081</v>
+        <v>0.05224744870501452</v>
       </c>
       <c r="M45" t="n">
-        <v>12.92981160133558</v>
+        <v>13.12413708787163</v>
       </c>
       <c r="N45" t="n">
-        <v>253.7738526609212</v>
+        <v>262.0635171383357</v>
       </c>
       <c r="O45" t="n">
-        <v>15.93028099755058</v>
+        <v>16.18837598829282</v>
       </c>
       <c r="P45" t="n">
-        <v>396.785827636748</v>
+        <v>395.8571825372499</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -36292,28 +36985,28 @@
         <v>0.0578</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.7480957653932723</v>
+        <v>-0.6657139255282326</v>
       </c>
       <c r="J46" t="n">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K46" t="n">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="L46" t="n">
-        <v>0.1012460238338626</v>
+        <v>0.08208298365173949</v>
       </c>
       <c r="M46" t="n">
-        <v>13.36479542064447</v>
+        <v>13.48525085281282</v>
       </c>
       <c r="N46" t="n">
-        <v>272.9907526827892</v>
+        <v>278.6750423548261</v>
       </c>
       <c r="O46" t="n">
-        <v>16.52243180293958</v>
+        <v>16.69356290175426</v>
       </c>
       <c r="P46" t="n">
-        <v>395.9248305580346</v>
+        <v>395.1372984254468</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -36350,7 +37043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU259"/>
+  <dimension ref="A1:AU264"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75239,11 +75932,7 @@
           <t>-38.01353768781908,174.79503943415298</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
-        <is>
-          <t>-38.013143377319366,174.79403168023217</t>
-        </is>
-      </c>
+      <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
@@ -79969,11 +80658,7 @@
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr">
-        <is>
-          <t>-38.014328974841156,174.79102085654026</t>
-        </is>
-      </c>
+      <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
@@ -80234,11 +80919,7 @@
           <t>-38.014795881565306,174.79385344231463</t>
         </is>
       </c>
-      <c r="E256" t="inlineStr">
-        <is>
-          <t>-38.01407207108564,174.79368242926643</t>
-        </is>
-      </c>
+      <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr"/>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="inlineStr"/>
@@ -80565,31 +81246,35 @@
           <t>2024-10-26 22:06:36+00:00</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
-        <is>
-          <t>-38.01506826201688,174.79717980481547</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr"/>
+      <c r="B258" t="inlineStr"/>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>-38.01504195370322,174.79523762372892</t>
+        </is>
+      </c>
       <c r="D258" t="inlineStr">
         <is>
           <t>-38.01490725311851,174.7935706172975</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr">
-        <is>
-          <t>-38.0142119881908,174.79131795690049</t>
-        </is>
-      </c>
-      <c r="G258" t="inlineStr">
-        <is>
-          <t>-38.01337012559887,174.79105475083102</t>
-        </is>
-      </c>
-      <c r="H258" t="inlineStr"/>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>-38.01180707119686,174.7934388759644</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr">
+        <is>
+          <t>-38.01112275937805,174.79321094634398</t>
+        </is>
+      </c>
+      <c r="J258" t="inlineStr">
+        <is>
+          <t>-38.01047569305175,174.79279355577185</t>
+        </is>
+      </c>
       <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
@@ -80853,6 +81538,1015 @@
         </is>
       </c>
     </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>-38.01545511375657,174.7961974717764</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
+      <c r="D260" t="inlineStr"/>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>-38.01390866624784,174.79409738331668</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>-38.01326807915924,174.79371501366856</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr"/>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>-38.01203229898669,174.79249499065588</t>
+        </is>
+      </c>
+      <c r="I260" t="inlineStr">
+        <is>
+          <t>-38.0112630087612,174.79250281765394</t>
+        </is>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>-38.01051470451437,174.79259658511114</t>
+        </is>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>-38.009402563725956,174.7945272385653</t>
+        </is>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>-38.00884517891599,174.79365702798933</t>
+        </is>
+      </c>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr">
+        <is>
+          <t>-38.00774551553114,174.79175348645126</t>
+        </is>
+      </c>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>-38.00696518204229,174.7921751116492</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>-38.00628942711838,174.79178894183806</t>
+        </is>
+      </c>
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>-38.00559341846094,174.79160796645957</t>
+        </is>
+      </c>
+      <c r="R260" t="inlineStr">
+        <is>
+          <t>-38.00490240101736,174.79137201285602</t>
+        </is>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>-38.004210212867605,174.79114886135886</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>-38.00353302803218,174.79076059240472</t>
+        </is>
+      </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>-38.00286115224376,174.7903138381051</t>
+        </is>
+      </c>
+      <c r="V260" t="inlineStr">
+        <is>
+          <t>-38.00219040561701,174.78985457654838</t>
+        </is>
+      </c>
+      <c r="W260" t="inlineStr">
+        <is>
+          <t>-38.00146992202675,174.78994239773309</t>
+        </is>
+      </c>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>-38.00081866555006,174.78999433267742</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>-38.000192065926946,174.78992198204966</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>-37.99951105682086,174.78976004570143</t>
+        </is>
+      </c>
+      <c r="AA260" t="inlineStr">
+        <is>
+          <t>-37.99885496864784,174.78940786523242</t>
+        </is>
+      </c>
+      <c r="AB260" t="inlineStr">
+        <is>
+          <t>-37.99823245130886,174.78891142458662</t>
+        </is>
+      </c>
+      <c r="AC260" t="inlineStr">
+        <is>
+          <t>-37.997476943937144,174.78898633003575</t>
+        </is>
+      </c>
+      <c r="AD260" t="inlineStr">
+        <is>
+          <t>-37.99672439173852,174.7890485064276</t>
+        </is>
+      </c>
+      <c r="AE260" t="inlineStr">
+        <is>
+          <t>-37.99599425817382,174.78901433538377</t>
+        </is>
+      </c>
+      <c r="AF260" t="inlineStr">
+        <is>
+          <t>-37.99530210331654,174.78881697112803</t>
+        </is>
+      </c>
+      <c r="AG260" t="inlineStr">
+        <is>
+          <t>-37.99464955378904,174.78844942736302</t>
+        </is>
+      </c>
+      <c r="AH260" t="inlineStr">
+        <is>
+          <t>-37.99394451022818,174.78821721313906</t>
+        </is>
+      </c>
+      <c r="AI260" t="inlineStr">
+        <is>
+          <t>-37.99318128672784,174.78817637732269</t>
+        </is>
+      </c>
+      <c r="AJ260" t="inlineStr">
+        <is>
+          <t>-37.99244272380149,174.7881801390156</t>
+        </is>
+      </c>
+      <c r="AK260" t="inlineStr">
+        <is>
+          <t>-37.99173072913366,174.78823790805586</t>
+        </is>
+      </c>
+      <c r="AL260" t="inlineStr">
+        <is>
+          <t>-37.99102358754394,174.78819459446032</t>
+        </is>
+      </c>
+      <c r="AM260" t="inlineStr">
+        <is>
+          <t>-37.99031813784172,174.7881159492083</t>
+        </is>
+      </c>
+      <c r="AN260" t="inlineStr">
+        <is>
+          <t>-37.98960499623526,174.78819714645357</t>
+        </is>
+      </c>
+      <c r="AO260" t="inlineStr">
+        <is>
+          <t>-37.988891076639085,174.78829437984226</t>
+        </is>
+      </c>
+      <c r="AP260" t="inlineStr">
+        <is>
+          <t>-37.98818572288094,174.78821331515437</t>
+        </is>
+      </c>
+      <c r="AQ260" t="inlineStr">
+        <is>
+          <t>-37.98748808643853,174.78797159767342</t>
+        </is>
+      </c>
+      <c r="AR260" t="inlineStr">
+        <is>
+          <t>-37.98682405331224,174.78761744010913</t>
+        </is>
+      </c>
+      <c r="AS260" t="inlineStr">
+        <is>
+          <t>-37.98615906877374,174.78743727201635</t>
+        </is>
+      </c>
+      <c r="AT260" t="inlineStr">
+        <is>
+          <t>-37.98545121497999,174.7873634943733</t>
+        </is>
+      </c>
+      <c r="AU260" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-14 22:06:13+00:00</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr"/>
+      <c r="C261" t="inlineStr"/>
+      <c r="D261" t="inlineStr"/>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>-38.00943461989556,174.79436540107974</t>
+        </is>
+      </c>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>-38.008299269149816,174.79272883089467</t>
+        </is>
+      </c>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>-38.00767582496219,174.79219319471395</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>-38.00699130312824,174.79192684848906</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>-38.006282958052786,174.7918601002371</t>
+        </is>
+      </c>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>-38.00559582502757,174.7915814944171</t>
+        </is>
+      </c>
+      <c r="R261" t="inlineStr">
+        <is>
+          <t>-38.004912212161045,174.7912640893375</t>
+        </is>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>-38.00422699925661,174.79096420681032</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>-38.00353110726296,174.7907817217078</t>
+        </is>
+      </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>-38.00285906767253,174.79033677003778</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>-38.002166384568824,174.79011883284494</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>-38.00146119176322,174.79003843858024</t>
+        </is>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>-38.0008367460662,174.78986860260636</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>-38.000221927751625,174.7897833290109</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>-37.99954535549226,174.78961268643172</t>
+        </is>
+      </c>
+      <c r="AA261" t="inlineStr">
+        <is>
+          <t>-37.99883725300652,174.789483977745</t>
+        </is>
+      </c>
+      <c r="AB261" t="inlineStr">
+        <is>
+          <t>-37.99815936063455,174.7892254484831</t>
+        </is>
+      </c>
+      <c r="AC261" t="inlineStr">
+        <is>
+          <t>-37.99746713722446,174.78902846279317</t>
+        </is>
+      </c>
+      <c r="AD261" t="inlineStr">
+        <is>
+          <t>-37.996760171746914,174.7888947858156</t>
+        </is>
+      </c>
+      <c r="AE261" t="inlineStr">
+        <is>
+          <t>-37.996063497160414,174.78871686830863</t>
+        </is>
+      </c>
+      <c r="AF261" t="inlineStr">
+        <is>
+          <t>-37.99537271489513,174.78851360827719</t>
+        </is>
+      </c>
+      <c r="AG261" t="inlineStr">
+        <is>
+          <t>-37.99470348626319,174.7882177212329</t>
+        </is>
+      </c>
+      <c r="AH261" t="inlineStr">
+        <is>
+          <t>-37.99393181571442,174.78828083338033</t>
+        </is>
+      </c>
+      <c r="AI261" t="inlineStr">
+        <is>
+          <t>-37.99321625172258,174.78784855866064</t>
+        </is>
+      </c>
+      <c r="AJ261" t="inlineStr">
+        <is>
+          <t>-37.99244764110786,174.7880778604055</t>
+        </is>
+      </c>
+      <c r="AK261" t="inlineStr">
+        <is>
+          <t>-37.991740969263944,174.78802491805877</t>
+        </is>
+      </c>
+      <c r="AL261" t="inlineStr">
+        <is>
+          <t>-37.99103082532015,174.78804405298376</t>
+        </is>
+      </c>
+      <c r="AM261" t="inlineStr">
+        <is>
+          <t>-37.99032096836969,174.7880570760451</t>
+        </is>
+      </c>
+      <c r="AN261" t="inlineStr">
+        <is>
+          <t>-37.9896115853924,174.7880600983943</t>
+        </is>
+      </c>
+      <c r="AO261" t="inlineStr">
+        <is>
+          <t>-37.98890260501105,174.7880546048845</t>
+        </is>
+      </c>
+      <c r="AP261" t="inlineStr">
+        <is>
+          <t>-37.98820107548507,174.78789399701304</t>
+        </is>
+      </c>
+      <c r="AQ261" t="inlineStr">
+        <is>
+          <t>-37.98749621275347,174.78780257521169</t>
+        </is>
+      </c>
+      <c r="AR261" t="inlineStr">
+        <is>
+          <t>-37.986809967243545,174.7877733930347</t>
+        </is>
+      </c>
+      <c r="AS261" t="inlineStr">
+        <is>
+          <t>-37.98612226937391,174.78771263020698</t>
+        </is>
+      </c>
+      <c r="AT261" t="inlineStr">
+        <is>
+          <t>-37.98540297034731,174.78772299786775</t>
+        </is>
+      </c>
+      <c r="AU261" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-22 22:06:01+00:00</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr"/>
+      <c r="C262" t="inlineStr"/>
+      <c r="D262" t="inlineStr"/>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>-38.013213477039024,174.79385367012276</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>-38.012606286561216,174.79332877678337</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>-38.01198723841432,174.792683833621</t>
+        </is>
+      </c>
+      <c r="I262" t="inlineStr">
+        <is>
+          <t>-38.01122666685171,174.79268631274192</t>
+        </is>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>-38.01049475029032,174.79269733513462</t>
+        </is>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>-38.007701680388266,174.79203006282972</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>-38.00698749466037,174.79196304570655</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>-38.00629563902664,174.7917206116609</t>
+        </is>
+      </c>
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>-38.005600093069205,174.79153454613183</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
+          <t>-38.00491075180836,174.79128015342724</t>
+        </is>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>-38.00422107278038,174.79102939992896</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>-38.00353086616674,174.79078437386886</t>
+        </is>
+      </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>-38.002856987503996,174.7903596534871</t>
+        </is>
+      </c>
+      <c r="V262" t="inlineStr">
+        <is>
+          <t>-38.00218738245247,174.78988783484303</t>
+        </is>
+      </c>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>-38.000879900793166,174.78956850501356</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>-38.00028796866414,174.7894766878361</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>-37.99962081701543,174.78928847368397</t>
+        </is>
+      </c>
+      <c r="AA262" t="inlineStr">
+        <is>
+          <t>-37.99884870842993,174.78943476131843</t>
+        </is>
+      </c>
+      <c r="AB262" t="inlineStr">
+        <is>
+          <t>-37.99823498812494,174.78890052543449</t>
+        </is>
+      </c>
+      <c r="AC262" t="inlineStr">
+        <is>
+          <t>-37.99748388490148,174.7889565093992</t>
+        </is>
+      </c>
+      <c r="AD262" t="inlineStr">
+        <is>
+          <t>-37.99673026488916,174.78902327384984</t>
+        </is>
+      </c>
+      <c r="AE262" t="inlineStr">
+        <is>
+          <t>-37.99602039495209,174.78890204604014</t>
+        </is>
+      </c>
+      <c r="AF262" t="inlineStr">
+        <is>
+          <t>-37.99532068882643,174.78873712407506</t>
+        </is>
+      </c>
+      <c r="AG262" t="inlineStr">
+        <is>
+          <t>-37.99466559664947,174.7883805038379</t>
+        </is>
+      </c>
+      <c r="AH262" t="inlineStr">
+        <is>
+          <t>-37.993956788167814,174.78815568043055</t>
+        </is>
+      </c>
+      <c r="AI262" t="inlineStr">
+        <is>
+          <t>-37.99320943209538,174.78791249761923</t>
+        </is>
+      </c>
+      <c r="AJ262" t="inlineStr">
+        <is>
+          <t>-37.99244844972307,174.78806104125465</t>
+        </is>
+      </c>
+      <c r="AK262" t="inlineStr">
+        <is>
+          <t>-37.991739830411454,174.78804860606547</t>
+        </is>
+      </c>
+      <c r="AL262" t="inlineStr">
+        <is>
+          <t>-37.99103072307318,174.7880461796888</t>
+        </is>
+      </c>
+      <c r="AM262" t="inlineStr">
+        <is>
+          <t>-37.990317024010345,174.78813911601588</t>
+        </is>
+      </c>
+      <c r="AN262" t="inlineStr">
+        <is>
+          <t>-37.98960842196121,174.78812589510324</t>
+        </is>
+      </c>
+      <c r="AO262" t="inlineStr">
+        <is>
+          <t>-37.98889831607651,174.78814381027084</t>
+        </is>
+      </c>
+      <c r="AP262" t="inlineStr">
+        <is>
+          <t>-37.988195278749245,174.78801456519926</t>
+        </is>
+      </c>
+      <c r="AQ262" t="inlineStr">
+        <is>
+          <t>-37.98749185363876,174.78789324280714</t>
+        </is>
+      </c>
+      <c r="AR262" t="inlineStr">
+        <is>
+          <t>-37.986818329913824,174.78768080659734</t>
+        </is>
+      </c>
+      <c r="AS262" t="inlineStr">
+        <is>
+          <t>-37.98614264188857,174.78756018979448</t>
+        </is>
+      </c>
+      <c r="AT262" t="inlineStr">
+        <is>
+          <t>-37.98542917893089,174.78752770099726</t>
+        </is>
+      </c>
+      <c r="AU262" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:06:08+00:00</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr"/>
+      <c r="C263" t="inlineStr"/>
+      <c r="D263" t="inlineStr"/>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>-38.009417618118256,174.79445123572378</t>
+        </is>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>-38.008920469664154,174.79327690491488</t>
+        </is>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>-38.00828082440122,174.7928219555086</t>
+        </is>
+      </c>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>-38.007679452875976,174.79217030489508</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>-38.006991790072924,174.7919222203622</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>-38.00629174116167,174.7917634877173</t>
+        </is>
+      </c>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>-38.00559536222676,174.79158658519466</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
+          <t>-38.00490989822093,174.79128954300046</t>
+        </is>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>-38.00422907513085,174.79094137143898</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>-38.003531576886246,174.79077655564987</t>
+        </is>
+      </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>-38.002858438921486,174.79034368678674</t>
+        </is>
+      </c>
+      <c r="V263" t="inlineStr">
+        <is>
+          <t>-38.00216462615556,174.79013817694113</t>
+        </is>
+      </c>
+      <c r="W263" t="inlineStr">
+        <is>
+          <t>-38.001460317704286,174.79004805397577</t>
+        </is>
+      </c>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>-38.000848439872996,174.78978728453464</t>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>-38.00022796161901,174.78975531273272</t>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>-37.9995452283663,174.78961323261163</t>
+        </is>
+      </c>
+      <c r="AA263" t="inlineStr">
+        <is>
+          <t>-37.99884286348276,174.78945987322834</t>
+        </is>
+      </c>
+      <c r="AB263" t="inlineStr">
+        <is>
+          <t>-37.99816451342272,174.7892033103842</t>
+        </is>
+      </c>
+      <c r="AC263" t="inlineStr">
+        <is>
+          <t>-37.99747753233943,174.78898380206994</t>
+        </is>
+      </c>
+      <c r="AD263" t="inlineStr">
+        <is>
+          <t>-37.996780228223955,174.78880861731545</t>
+        </is>
+      </c>
+      <c r="AE263" t="inlineStr">
+        <is>
+          <t>-37.99606257824044,174.78872081623095</t>
+        </is>
+      </c>
+      <c r="AF263" t="inlineStr">
+        <is>
+          <t>-37.99537789786584,174.7884913409424</t>
+        </is>
+      </c>
+      <c r="AG263" t="inlineStr">
+        <is>
+          <t>-37.994693897654884,174.7882589162339</t>
+        </is>
+      </c>
+      <c r="AH263" t="inlineStr">
+        <is>
+          <t>-37.993942591734665,174.78822682793646</t>
+        </is>
+      </c>
+      <c r="AI263" t="inlineStr">
+        <is>
+          <t>-37.99322118590193,174.78780229693533</t>
+        </is>
+      </c>
+      <c r="AJ263" t="inlineStr">
+        <is>
+          <t>-37.9924497664495,174.78803365331206</t>
+        </is>
+      </c>
+      <c r="AK263" t="inlineStr">
+        <is>
+          <t>-37.99174265021612,174.78798995425618</t>
+        </is>
+      </c>
+      <c r="AL263" t="inlineStr">
+        <is>
+          <t>-37.9910324979505,174.78800926268573</t>
+        </is>
+      </c>
+      <c r="AM263" t="inlineStr">
+        <is>
+          <t>-37.99032149438045,174.78804613529155</t>
+        </is>
+      </c>
+      <c r="AN263" t="inlineStr">
+        <is>
+          <t>-37.98961051452861,174.78808237154703</t>
+        </is>
+      </c>
+      <c r="AO263" t="inlineStr">
+        <is>
+          <t>-37.98890125550642,174.78808267333233</t>
+        </is>
+      </c>
+      <c r="AP263" t="inlineStr">
+        <is>
+          <t>-37.98819910865166,174.78793490610815</t>
+        </is>
+      </c>
+      <c r="AQ263" t="inlineStr">
+        <is>
+          <t>-37.98749072399836,174.787916738573</t>
+        </is>
+      </c>
+      <c r="AR263" t="inlineStr">
+        <is>
+          <t>-37.98680572401489,174.78782037118532</t>
+        </is>
+      </c>
+      <c r="AS263" t="inlineStr">
+        <is>
+          <t>-37.9861150534363,174.7877666241749</t>
+        </is>
+      </c>
+      <c r="AT263" t="inlineStr">
+        <is>
+          <t>-37.985416511488914,174.7876220945036</t>
+        </is>
+      </c>
+      <c r="AU263" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr"/>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr"/>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr"/>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>-38.009423460434796,174.79442174042615</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>-38.00890174008232,174.79337146626818</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>-38.00827677661155,174.7928423921017</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>-38.00763200649459,174.79246965887125</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>-38.006963206510086,174.79219388753037</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>-38.00628663997455,174.79181959990999</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>-38.00559504340829,174.79159009217472</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>-38.00489797877157,174.79142065761783</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>-38.00420294200636,174.7912288416688</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>-38.0035277570485,174.7908185754327</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>-38.00285332663168,174.7903999257686</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>-38.002176749887994,174.790004804467</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>-38.00146940787911,174.78994805384966</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>-38.00081943885387,174.7899889552216</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>-38.00019000730077,174.7899315405353</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>-37.99953416839922,174.7896607502568</t>
+        </is>
+      </c>
+      <c r="AA264" t="inlineStr">
+        <is>
+          <t>-37.99885869200561,174.7893918683703</t>
+        </is>
+      </c>
+      <c r="AB264" t="inlineStr">
+        <is>
+          <t>-37.9981800875871,174.78913639844603</t>
+        </is>
+      </c>
+      <c r="AC264" t="inlineStr">
+        <is>
+          <t>-37.99743827271404,174.7891524734742</t>
+        </is>
+      </c>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>-37.99671623033853,174.78908356987284</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>-37.996001046627335,174.7889851707471</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>-37.99532811284558,174.788705228934</t>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>-37.99466442712374,174.7883855283749</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr">
+        <is>
+          <t>-37.993939117216776,174.78824424095538</t>
+        </is>
+      </c>
+      <c r="AI264" t="inlineStr">
+        <is>
+          <t>-37.99318837126422,174.78810995608444</t>
+        </is>
+      </c>
+      <c r="AJ264" t="inlineStr">
+        <is>
+          <t>-37.992446570235344,174.7881001344154</t>
+        </is>
+      </c>
+      <c r="AK264" t="inlineStr">
+        <is>
+          <t>-37.99173487853323,174.78815160342705</t>
+        </is>
+      </c>
+      <c r="AL264" t="inlineStr">
+        <is>
+          <t>-37.99102934624745,174.78807481715137</t>
+        </is>
+      </c>
+      <c r="AM264" t="inlineStr">
+        <is>
+          <t>-37.99031530558872,174.78817485763324</t>
+        </is>
+      </c>
+      <c r="AN264" t="inlineStr">
+        <is>
+          <t>-37.989606345768806,174.7881690777408</t>
+        </is>
+      </c>
+      <c r="AO264" t="inlineStr">
+        <is>
+          <t>-37.988896758930714,174.78817619693652</t>
+        </is>
+      </c>
+      <c r="AP264" t="inlineStr">
+        <is>
+          <t>-37.98819690687411,174.7879807015641</t>
+        </is>
+      </c>
+      <c r="AQ264" t="inlineStr"/>
+      <c r="AR264" t="inlineStr"/>
+      <c r="AS264" t="inlineStr"/>
+      <c r="AT264" t="inlineStr"/>
+      <c r="AU264" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
